--- a/errors dictionary.xlsx
+++ b/errors dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>success</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>full name already exist</t>
+  </si>
+  <si>
+    <t>lowBalance</t>
+  </si>
+  <si>
+    <t>pos balance is not enough</t>
+  </si>
+  <si>
+    <t>lowReturnQty</t>
+  </si>
+  <si>
+    <t>lowQty</t>
+  </si>
+  <si>
+    <t>quantity not available in store</t>
+  </si>
+  <si>
+    <t>Return quantity is greater than quantity in main invoice</t>
   </si>
 </sst>
 </file>
@@ -389,16 +407,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,6 +483,30 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
